--- a/rsarsb_rates.xlsx
+++ b/rsarsb_rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pv01-my.sharepoint.com/personal/gordon_pv01_co_za/Documents/Projects/rsarsb_fixed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{46F60F31-3B3C-4C79-B006-52310C369C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86FC36E1-367E-4D22-A239-D8C1F57DF5AB}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{46F60F31-3B3C-4C79-B006-52310C369C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB04CF96-4CBC-4FB7-A241-23E12E43CC3A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{23AB1C35-B6CA-4B50-A863-22E1A3DC799E}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" zoomScale="95" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5426,13 +5426,13 @@
         <v>46053</v>
       </c>
       <c r="H114" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="I114" s="6">
         <v>7.5</v>
       </c>
-      <c r="I114" s="6">
-        <v>7.75</v>
-      </c>
       <c r="J114" s="6">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="K114">
         <v>5</v>
